--- a/Salarios_Data_Scientist_Por_Pais.xlsx
+++ b/Salarios_Data_Scientist_Por_Pais.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.m.guerra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/guilherme_m_guerra_accenture_com/Documents/Documents/IMERSAO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C95D8-E363-475A-BAC7-3BBB4E6CB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{618C95D8-E363-475A-BAC7-3BBB4E6CB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D0D9067-D6FD-4464-A766-E17F18D464CE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,7 +108,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +121,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,8 +229,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -218,13 +242,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,7 +555,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,21 +581,25 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>120776</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>156790</v>
+      </c>
+      <c r="D2">
+        <f>MEDIAN(B2:C2)</f>
+        <v>138783</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>85115</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>109447</v>
       </c>
     </row>
@@ -578,10 +607,10 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>79218</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>107446</v>
       </c>
     </row>
@@ -589,10 +618,10 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>73607</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>101527</v>
       </c>
     </row>
@@ -600,10 +629,10 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>98471</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>98471</v>
       </c>
     </row>
@@ -611,10 +640,10 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>97883</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>97883</v>
       </c>
     </row>
@@ -622,10 +651,10 @@
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>89250</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>89250</v>
       </c>
     </row>
@@ -633,10 +662,10 @@
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>86704</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>86704</v>
       </c>
     </row>
@@ -644,10 +673,10 @@
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>86082</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>86082</v>
       </c>
     </row>
@@ -655,10 +684,10 @@
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>85582</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>85582</v>
       </c>
     </row>
@@ -666,10 +695,10 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>82197</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>82197</v>
       </c>
     </row>
@@ -677,10 +706,10 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>64949</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>64949</v>
       </c>
     </row>
@@ -688,10 +717,10 @@
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>46668</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>46668</v>
       </c>
     </row>
@@ -699,10 +728,10 @@
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>35419</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>35419</v>
       </c>
     </row>
@@ -710,10 +739,10 @@
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>26824</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>26824</v>
       </c>
     </row>
@@ -721,10 +750,10 @@
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>22238</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>22238</v>
       </c>
     </row>
@@ -732,10 +761,10 @@
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>21640</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>21640</v>
       </c>
     </row>
@@ -743,10 +772,10 @@
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>50832</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>50832</v>
       </c>
     </row>
@@ -754,15 +783,15 @@
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>93494</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>93494</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="7">
